--- a/国家地区代码emoji对照表.xlsx
+++ b/国家地区代码emoji对照表.xlsx
@@ -1,74 +1,1571 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vien.meng/Desktop/working/vien_job/area-code-emoji/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C40F75A-6932-044E-BD9E-0BC9FD6A0E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="中文" sheetId="2" r:id="rId1"/>
+    <sheet name="英文" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="498">
+  <si>
+    <t>国家/地区</t>
+  </si>
+  <si>
+    <t>区号</t>
+  </si>
+  <si>
+    <t>emoji</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>+93</t>
+  </si>
+  <si>
+    <t>🇦🇫</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>+355</t>
+  </si>
+  <si>
+    <t>🇦🇱</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>+213</t>
+  </si>
+  <si>
+    <t>🇩🇿</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>+1-684</t>
+  </si>
+  <si>
+    <t>🇦🇸</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>+244</t>
+  </si>
+  <si>
+    <t>🇦🇴</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t>+1-268</t>
+  </si>
+  <si>
+    <t>🇦🇬</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>+54</t>
+  </si>
+  <si>
+    <t>🇦🇷</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>+374</t>
+  </si>
+  <si>
+    <t>🇦🇲</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>+61</t>
+  </si>
+  <si>
+    <t>🇦🇺</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>+43</t>
+  </si>
+  <si>
+    <t>🇦🇹</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>+994</t>
+  </si>
+  <si>
+    <t>🇦🇿</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>+1-242</t>
+  </si>
+  <si>
+    <t>🇧🇸</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>+973</t>
+  </si>
+  <si>
+    <t>🇧🇭</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>+880</t>
+  </si>
+  <si>
+    <t>🇧🇩</t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t>+1-246</t>
+  </si>
+  <si>
+    <t>🇧🇧</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>+375</t>
+  </si>
+  <si>
+    <t>🇧🇾</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>+32</t>
+  </si>
+  <si>
+    <t>🇧🇪</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>+501</t>
+  </si>
+  <si>
+    <t>🇧🇿</t>
+  </si>
+  <si>
+    <t>贝尔哈</t>
+  </si>
+  <si>
+    <t>+229</t>
+  </si>
+  <si>
+    <t>🇧🇯</t>
+  </si>
+  <si>
+    <t>博茨瓦纳</t>
+  </si>
+  <si>
+    <t>+267</t>
+  </si>
+  <si>
+    <t>🇧🇼</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>+55</t>
+  </si>
+  <si>
+    <t>🇧🇷</t>
+  </si>
+  <si>
+    <t>文莱</t>
+  </si>
+  <si>
+    <t>+673</t>
+  </si>
+  <si>
+    <t>🇧🇳</t>
+  </si>
+  <si>
+    <t>保加利亚</t>
+  </si>
+  <si>
+    <t>+359</t>
+  </si>
+  <si>
+    <t>🇧🇬</t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t>+226</t>
+  </si>
+  <si>
+    <t>🇧🇫</t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t>+257</t>
+  </si>
+  <si>
+    <t>🇧🇮</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>+237</t>
+  </si>
+  <si>
+    <t>🇨🇲</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>🇨🇦</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>+238</t>
+  </si>
+  <si>
+    <t>🇨🇻</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>+236</t>
+  </si>
+  <si>
+    <t>🇨🇫</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>+235</t>
+  </si>
+  <si>
+    <t>🇹🇩</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>+56</t>
+  </si>
+  <si>
+    <t>🇨🇱</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>+86</t>
+  </si>
+  <si>
+    <t>🇨🇳</t>
+  </si>
+  <si>
+    <t>中国台湾</t>
+  </si>
+  <si>
+    <t>+886</t>
+  </si>
+  <si>
+    <t>🇹🇼</t>
+  </si>
+  <si>
+    <t>中国香港</t>
+  </si>
+  <si>
+    <t>+852</t>
+  </si>
+  <si>
+    <t>🇭🇰</t>
+  </si>
+  <si>
+    <t>中国澳门</t>
+  </si>
+  <si>
+    <t>+853</t>
+  </si>
+  <si>
+    <t>🇲🇴</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>+57</t>
+  </si>
+  <si>
+    <t>🇨🇴</t>
+  </si>
+  <si>
+    <t>科摩罗</t>
+  </si>
+  <si>
+    <t>+269</t>
+  </si>
+  <si>
+    <t>🇰🇲</t>
+  </si>
+  <si>
+    <t>刚果</t>
+  </si>
+  <si>
+    <t>+242</t>
+  </si>
+  <si>
+    <t>🇨🇬</t>
+  </si>
+  <si>
+    <t>刚果（民主共和国）</t>
+  </si>
+  <si>
+    <t>+243</t>
+  </si>
+  <si>
+    <t>🇨🇩</t>
+  </si>
+  <si>
+    <t>库克群岛</t>
+  </si>
+  <si>
+    <t>+682</t>
+  </si>
+  <si>
+    <t>🇨🇰</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>+506</t>
+  </si>
+  <si>
+    <t>🇨🇷</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>+385</t>
+  </si>
+  <si>
+    <t>🇭🇷</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>+53</t>
+  </si>
+  <si>
+    <t>🇨🇺</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>+357</t>
+  </si>
+  <si>
+    <t>🇨🇾</t>
+  </si>
+  <si>
+    <t>捷克共和国</t>
+  </si>
+  <si>
+    <t>+420</t>
+  </si>
+  <si>
+    <t>🇨🇿</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>+45</t>
+  </si>
+  <si>
+    <t>🇩🇰</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>+253</t>
+  </si>
+  <si>
+    <t>🇩🇯</t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t>+1-809</t>
+  </si>
+  <si>
+    <t>🇩🇴</t>
+  </si>
+  <si>
+    <t>多米尼加共和国</t>
+  </si>
+  <si>
+    <t>+1-829</t>
+  </si>
+  <si>
+    <t>🇩🇲</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>+670</t>
+  </si>
+  <si>
+    <t>🇹🇱</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>+593</t>
+  </si>
+  <si>
+    <t>🇪🇨</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>+20</t>
+  </si>
+  <si>
+    <t>🇪🇬</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>+503</t>
+  </si>
+  <si>
+    <t>🇸🇻</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>+240</t>
+  </si>
+  <si>
+    <t>🇬🇶</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>+291</t>
+  </si>
+  <si>
+    <t>🇪🇷</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>+372</t>
+  </si>
+  <si>
+    <t>🇪🇪</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>+251</t>
+  </si>
+  <si>
+    <t>🇪🇹</t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t>+679</t>
+  </si>
+  <si>
+    <t>🇫🇯</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>+358</t>
+  </si>
+  <si>
+    <t>🇫🇮</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>+33</t>
+  </si>
+  <si>
+    <t>🇫🇷</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>+241</t>
+  </si>
+  <si>
+    <t>🇬🇦</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>+220</t>
+  </si>
+  <si>
+    <t>🇬🇲</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>+995</t>
+  </si>
+  <si>
+    <t>🇬🇪</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>+49</t>
+  </si>
+  <si>
+    <t>🇩🇪</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>+233</t>
+  </si>
+  <si>
+    <t>🇬🇭</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>+30</t>
+  </si>
+  <si>
+    <t>🇬🇷</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>+1-473</t>
+  </si>
+  <si>
+    <t>🇬🇩</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>+502</t>
+  </si>
+  <si>
+    <t>🇬🇹</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>+224</t>
+  </si>
+  <si>
+    <t>🇬🇳</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>+245</t>
+  </si>
+  <si>
+    <t>🇬🇼</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>+592</t>
+  </si>
+  <si>
+    <t>🇬🇾</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>+509</t>
+  </si>
+  <si>
+    <t>🇭🇹</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>+504</t>
+  </si>
+  <si>
+    <t>🇭🇳</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>+36</t>
+  </si>
+  <si>
+    <t>🇭🇺</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>+354</t>
+  </si>
+  <si>
+    <t>🇮🇸</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>+91</t>
+  </si>
+  <si>
+    <t>🇮🇳</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>+62</t>
+  </si>
+  <si>
+    <t>🇮🇩</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>+98</t>
+  </si>
+  <si>
+    <t>🇮🇷</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>+964</t>
+  </si>
+  <si>
+    <t>🇮🇶</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>+353</t>
+  </si>
+  <si>
+    <t>🇮🇪</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>+972</t>
+  </si>
+  <si>
+    <t>🇮🇱</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>+39</t>
+  </si>
+  <si>
+    <t>🇮🇹</t>
+  </si>
+  <si>
+    <t>牙买加</t>
+  </si>
+  <si>
+    <t>+1-876</t>
+  </si>
+  <si>
+    <t>🇯🇲</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>+81</t>
+  </si>
+  <si>
+    <t>🇯🇵</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>+962</t>
+  </si>
+  <si>
+    <t>🇯🇴</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>🇰🇿</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>+254</t>
+  </si>
+  <si>
+    <t>🇰🇪</t>
+  </si>
+  <si>
+    <t>基里巴斯</t>
+  </si>
+  <si>
+    <t>+686</t>
+  </si>
+  <si>
+    <t>🇰🇮</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>+82</t>
+  </si>
+  <si>
+    <t>🇰🇷</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>+965</t>
+  </si>
+  <si>
+    <t>🇰🇼</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>+996</t>
+  </si>
+  <si>
+    <t>🇰🇬</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>+856</t>
+  </si>
+  <si>
+    <t>🇱🇸</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>+371</t>
+  </si>
+  <si>
+    <t>🇱🇻</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>+961</t>
+  </si>
+  <si>
+    <t>🇱🇧</t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t>+266</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>+231</t>
+  </si>
+  <si>
+    <t>🇱🇷</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>+218</t>
+  </si>
+  <si>
+    <t>🇱🇾</t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t>+423</t>
+  </si>
+  <si>
+    <t>🇱🇮</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>+370</t>
+  </si>
+  <si>
+    <t>🇱🇹</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>+352</t>
+  </si>
+  <si>
+    <t>🇱🇺</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>+389</t>
+  </si>
+  <si>
+    <t>🇲🇰</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>+261</t>
+  </si>
+  <si>
+    <t>🇲🇬</t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t>+265</t>
+  </si>
+  <si>
+    <t>🇲🇼</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>+60</t>
+  </si>
+  <si>
+    <t>🇲🇾</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>+960</t>
+  </si>
+  <si>
+    <t>🇲🇻</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>+223</t>
+  </si>
+  <si>
+    <t>🇲🇱</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>+356</t>
+  </si>
+  <si>
+    <t>🇲🇹</t>
+  </si>
+  <si>
+    <t>马提尼克</t>
+  </si>
+  <si>
+    <t>+596</t>
+  </si>
+  <si>
+    <t>🇲🇶</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>+258</t>
+  </si>
+  <si>
+    <t>🇲🇿</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>+95</t>
+  </si>
+  <si>
+    <t>🇲🇲</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>+264</t>
+  </si>
+  <si>
+    <t>🇳🇦</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>+977</t>
+  </si>
+  <si>
+    <t>🇳🇵</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>+31</t>
+  </si>
+  <si>
+    <t>🇳🇱</t>
+  </si>
+  <si>
+    <t>新喀里多尼亚</t>
+  </si>
+  <si>
+    <t>+687</t>
+  </si>
+  <si>
+    <t>🇳🇨</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>+64</t>
+  </si>
+  <si>
+    <t>🇳🇿</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>+505</t>
+  </si>
+  <si>
+    <t>🇳🇮</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>+227</t>
+  </si>
+  <si>
+    <t>🇳🇪</t>
+  </si>
+  <si>
+    <t>尼日利亚</t>
+  </si>
+  <si>
+    <t>+234</t>
+  </si>
+  <si>
+    <t>🇳🇬</t>
+  </si>
+  <si>
+    <t>北马其顿</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>+47</t>
+  </si>
+  <si>
+    <t>🇳🇴</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>+968</t>
+  </si>
+  <si>
+    <t>🇴🇲</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>+92</t>
+  </si>
+  <si>
+    <t>🇵🇰</t>
+  </si>
+  <si>
+    <t>帕劳</t>
+  </si>
+  <si>
+    <t>+680</t>
+  </si>
+  <si>
+    <t>🇵🇬</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
+  </si>
+  <si>
+    <t>Area Code</t>
+  </si>
+  <si>
+    <t>Emoji</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+  </si>
+  <si>
+    <t>China Macau</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo (Democratic Republic)</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>🇺🇸</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,23 +1580,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -112,7 +1627,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,26 +1921,28 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDF080-15E2-DE4B-BFB9-6F61D0DFC4EA}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>国家/地区</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>区号</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>emoji</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -445,15 +1962,15 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>阿富汗</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>+93</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>🇦🇫</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -473,15 +1990,15 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>阿尔巴尼亚</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>+355</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>🇦🇱</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -501,15 +2018,15 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>阿尔及利亚</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>+213</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>🇩🇿</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -529,15 +2046,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>美属萨摩亚</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>+1-684</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>🇦🇸</v>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -557,15 +2074,15 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>安哥拉</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>+244</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>🇦🇴</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -585,15 +2102,15 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>安提瓜和巴布达</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>+1-268</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>🇦🇬</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -613,15 +2130,15 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>阿根廷</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>+54</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>🇦🇷</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -641,15 +2158,15 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>亚美尼亚</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>+374</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>🇦🇲</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -669,15 +2186,15 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>澳大利亚</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>+61</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>🇦🇺</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -697,15 +2214,15 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="str">
-        <v>奥地利</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>+43</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>🇦🇹</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -725,15 +2242,15 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>阿塞拜疆</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>+994</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>🇦🇿</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -753,15 +2270,15 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
-        <v>巴哈马</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>+1-242</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>🇧🇸</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -781,15 +2298,15 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="str">
-        <v>巴林</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>+973</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>🇧🇭</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -809,15 +2326,15 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="str">
-        <v>孟加拉国</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>+880</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>🇧🇩</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -837,15 +2354,15 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="str">
-        <v>巴巴多斯</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>+1-246</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>🇧🇧</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -865,15 +2382,15 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="str">
-        <v>白俄罗斯</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <v>+375</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <v>🇧🇾</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -893,15 +2410,15 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="str">
-        <v>比利时</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <v>+32</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <v>🇧🇪</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -921,15 +2438,15 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="str">
-        <v>伯利兹</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>+501</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>🇧🇿</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -949,15 +2466,15 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="str">
-        <v>贝尔哈</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <v>+229</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <v>🇧🇯</v>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -977,15 +2494,15 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="str">
-        <v>博茨瓦纳</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>+267</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <v>🇧🇼</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1005,15 +2522,15 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="str">
-        <v>巴西</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>+55</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>🇧🇷</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1033,15 +2550,15 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="str">
-        <v>文莱</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>+673</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>🇧🇳</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1061,15 +2578,15 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="str">
-        <v>保加利亚</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>+359</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>🇧🇬</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1089,15 +2606,15 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="str">
-        <v>布基纳法索</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>+226</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>🇧🇫</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1117,15 +2634,15 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="str">
-        <v>布隆迪</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <v>+257</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>🇧🇮</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1145,15 +2662,15 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="str">
-        <v>喀麦隆</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <v>+237</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>🇨🇲</v>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1173,15 +2690,15 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="str">
-        <v>加拿大</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <v>+1</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>🇨🇦</v>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1201,15 +2718,15 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="str">
-        <v>佛得角</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <v>+238</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>🇨🇻</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1229,15 +2746,15 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="str">
-        <v>中非共和国</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <v>+236</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>🇨🇫</v>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1257,15 +2774,15 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="str">
-        <v>乍得</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <v>+235</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>🇹🇩</v>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1285,15 +2802,15 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="str">
-        <v>智利</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <v>+56</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>🇨🇱</v>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1313,15 +2830,15 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="str">
-        <v>中国</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <v>+86</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>🇨🇳</v>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1341,15 +2858,15 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="str">
-        <v>中国台湾</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <v>+886</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <v>🇹🇼</v>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1369,15 +2886,15 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="str">
-        <v>中国香港</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <v>+852</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <v>🇭🇰</v>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1397,15 +2914,15 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="str">
-        <v>中国澳门</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>+853</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <v>🇲🇴</v>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1425,15 +2942,15 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="str">
-        <v>哥伦比亚</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <v>+57</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <v>🇨🇴</v>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1453,15 +2970,15 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="str">
-        <v>科摩罗</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <v>+269</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <v>🇰🇲</v>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1481,15 +2998,15 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="str">
-        <v>刚果</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <v>+242</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <v>🇨🇬</v>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1509,15 +3026,15 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="str">
-        <v>刚果（民主共和国）</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <v>+243</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <v>🇨🇩</v>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1537,15 +3054,15 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="str">
-        <v>库克群岛</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>+682</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>🇨🇰</v>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1565,15 +3082,15 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="str">
-        <v>哥斯达黎加</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <v>+506</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <v>🇨🇷</v>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1593,15 +3110,15 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="str">
-        <v>克罗地亚</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <v>+385</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <v>🇭🇷</v>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1621,15 +3138,15 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="str">
-        <v>古巴</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <v>+53</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <v>🇨🇺</v>
+    <row r="44" spans="1:20">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1649,15 +3166,15 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="str">
-        <v>塞浦路斯</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <v>+357</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <v>🇨🇾</v>
+    <row r="45" spans="1:20">
+      <c r="A45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1677,15 +3194,15 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="str">
-        <v>捷克共和国</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <v>+420</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <v>🇨🇿</v>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1705,15 +3222,15 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="str">
-        <v>丹麦</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <v>+45</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <v>🇩🇰</v>
+    <row r="47" spans="1:20">
+      <c r="A47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1733,15 +3250,15 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="str">
-        <v>吉布提</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <v>+253</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <v>🇩🇯</v>
+    <row r="48" spans="1:20">
+      <c r="A48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1761,15 +3278,15 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="str">
-        <v>多米尼加</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <v>+1-809</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <v>🇩🇴</v>
+    <row r="49" spans="1:20">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1789,15 +3306,15 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="str">
-        <v>多米尼加共和国</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <v>+1-829</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <v>🇩🇲</v>
+    <row r="50" spans="1:20">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1817,15 +3334,15 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="str">
-        <v>东帝汶</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <v>+670</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <v>🇹🇱</v>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1845,15 +3362,15 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="str">
-        <v>厄瓜多尔</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>+593</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <v>🇪🇨</v>
+    <row r="52" spans="1:20">
+      <c r="A52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1873,15 +3390,15 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="str">
-        <v>埃及</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <v>+20</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <v>🇪🇬</v>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1901,15 +3418,15 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="str">
-        <v>萨尔瓦多</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <v>+503</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <v>🇸🇻</v>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1929,15 +3446,15 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="str">
-        <v>赤道几内亚</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <v>+240</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <v>🇬🇶</v>
+    <row r="55" spans="1:20">
+      <c r="A55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1957,15 +3474,15 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="str">
-        <v>厄立特里亚</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <v>+291</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <v>🇪🇷</v>
+    <row r="56" spans="1:20">
+      <c r="A56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1985,15 +3502,15 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="str">
-        <v>爱沙尼亚</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <v>+372</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <v>🇪🇪</v>
+    <row r="57" spans="1:20">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2013,15 +3530,15 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="str">
-        <v>埃塞俄比亚</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <v>+251</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <v>🇪🇹</v>
+    <row r="58" spans="1:20">
+      <c r="A58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2041,15 +3558,15 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="str">
-        <v>斐济</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <v>+679</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <v>🇫🇯</v>
+    <row r="59" spans="1:20">
+      <c r="A59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2069,15 +3586,15 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="str">
-        <v>芬兰</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <v>+358</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <v>🇫🇮</v>
+    <row r="60" spans="1:20">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2097,15 +3614,15 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="str">
-        <v>法国</v>
-      </c>
-      <c r="B61" s="1" t="str">
-        <v>+33</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <v>🇫🇷</v>
+    <row r="61" spans="1:20">
+      <c r="A61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2125,15 +3642,15 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="str">
-        <v>加蓬</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <v>+241</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <v>🇬🇦</v>
+    <row r="62" spans="1:20">
+      <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2153,15 +3670,15 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="str">
-        <v>冈比亚</v>
-      </c>
-      <c r="B63" s="1" t="str">
-        <v>+220</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <v>🇬🇲</v>
+    <row r="63" spans="1:20">
+      <c r="A63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2181,15 +3698,15 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="str">
-        <v>格鲁吉亚</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <v>+995</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <v>🇬🇪</v>
+    <row r="64" spans="1:20">
+      <c r="A64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2209,15 +3726,15 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="str">
-        <v>德国</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <v>+49</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <v>🇩🇪</v>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2237,15 +3754,15 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="str">
-        <v>加纳</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <v>+233</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <v>🇬🇭</v>
+    <row r="66" spans="1:20">
+      <c r="A66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2265,15 +3782,15 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="str">
-        <v>希腊</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <v>+30</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <v>🇬🇷</v>
+    <row r="67" spans="1:20">
+      <c r="A67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2293,15 +3810,15 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="str">
-        <v>格林纳达</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <v>+1-473</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <v>🇬🇩</v>
+    <row r="68" spans="1:20">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2321,15 +3838,15 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="str">
-        <v>危地马拉</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <v>+502</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <v>🇬🇹</v>
+    <row r="69" spans="1:20">
+      <c r="A69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2349,15 +3866,15 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="str">
-        <v>几内亚</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <v>+224</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <v>🇬🇳</v>
+    <row r="70" spans="1:20">
+      <c r="A70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2377,15 +3894,15 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="str">
-        <v>几内亚比绍</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <v>+245</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <v>🇬🇼</v>
+    <row r="71" spans="1:20">
+      <c r="A71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2405,15 +3922,15 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="str">
-        <v>圭亚那</v>
-      </c>
-      <c r="B72" s="1" t="str">
-        <v>+592</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <v>🇬🇾</v>
+    <row r="72" spans="1:20">
+      <c r="A72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2433,15 +3950,15 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="str">
-        <v>海地</v>
-      </c>
-      <c r="B73" s="1" t="str">
-        <v>+509</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <v>🇭🇹</v>
+    <row r="73" spans="1:20">
+      <c r="A73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2461,15 +3978,15 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="str">
-        <v>洪都拉斯</v>
-      </c>
-      <c r="B74" s="1" t="str">
-        <v>+504</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <v>🇭🇳</v>
+    <row r="74" spans="1:20">
+      <c r="A74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2489,15 +4006,15 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="str">
-        <v>匈牙利</v>
-      </c>
-      <c r="B75" s="1" t="str">
-        <v>+36</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <v>🇭🇺</v>
+    <row r="75" spans="1:20">
+      <c r="A75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -2517,15 +4034,15 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="str">
-        <v>冰岛</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <v>+354</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <v>🇮🇸</v>
+    <row r="76" spans="1:20">
+      <c r="A76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -2545,15 +4062,15 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="str">
-        <v>印度</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <v>+91</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <v>🇮🇳</v>
+    <row r="77" spans="1:20">
+      <c r="A77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2573,15 +4090,15 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="str">
-        <v>印度尼西亚</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <v>+62</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <v>🇮🇩</v>
+    <row r="78" spans="1:20">
+      <c r="A78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2601,15 +4118,15 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="str">
-        <v>伊朗</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <v>+98</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <v>🇮🇷</v>
+    <row r="79" spans="1:20">
+      <c r="A79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2629,15 +4146,15 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="str">
-        <v>伊拉克</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <v>+964</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <v>🇮🇶</v>
+    <row r="80" spans="1:20">
+      <c r="A80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2657,15 +4174,15 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="str">
-        <v>爱尔兰</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <v>+353</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <v>🇮🇪</v>
+    <row r="81" spans="1:20">
+      <c r="A81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2685,15 +4202,15 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="str">
-        <v>以色列</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <v>+972</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <v>🇮🇱</v>
+    <row r="82" spans="1:20">
+      <c r="A82" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2713,15 +4230,15 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="str">
-        <v>意大利</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <v>+39</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <v>🇮🇹</v>
+    <row r="83" spans="1:20">
+      <c r="A83" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2741,15 +4258,15 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="str">
-        <v>牙买加</v>
-      </c>
-      <c r="B84" s="1" t="str">
-        <v>+1-876</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <v>🇯🇲</v>
+    <row r="84" spans="1:20">
+      <c r="A84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2769,15 +4286,15 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="str">
-        <v>日本</v>
-      </c>
-      <c r="B85" s="1" t="str">
-        <v>+81</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <v>🇯🇵</v>
+    <row r="85" spans="1:20">
+      <c r="A85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2797,15 +4314,15 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="str">
-        <v>约旦</v>
-      </c>
-      <c r="B86" s="1" t="str">
-        <v>+962</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <v>🇯🇴</v>
+    <row r="86" spans="1:20">
+      <c r="A86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2825,15 +4342,15 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="str">
-        <v>哈萨克斯坦</v>
-      </c>
-      <c r="B87" s="1" t="str">
-        <v>+7</v>
-      </c>
-      <c r="C87" s="1" t="str">
-        <v>🇰🇿</v>
+    <row r="87" spans="1:20">
+      <c r="A87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2853,15 +4370,15 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="str">
-        <v>肯尼亚</v>
-      </c>
-      <c r="B88" s="1" t="str">
-        <v>+254</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <v>🇰🇪</v>
+    <row r="88" spans="1:20">
+      <c r="A88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2881,15 +4398,15 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="str">
-        <v>基里巴斯</v>
-      </c>
-      <c r="B89" s="1" t="str">
-        <v>+686</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <v>🇰🇮</v>
+    <row r="89" spans="1:20">
+      <c r="A89" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2909,15 +4426,15 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="str">
-        <v>韩国</v>
-      </c>
-      <c r="B90" s="1" t="str">
-        <v>+82</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <v>🇰🇷</v>
+    <row r="90" spans="1:20">
+      <c r="A90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2937,15 +4454,15 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="str">
-        <v>科威特</v>
-      </c>
-      <c r="B91" s="1" t="str">
-        <v>+965</v>
-      </c>
-      <c r="C91" s="1" t="str">
-        <v>🇰🇼</v>
+    <row r="91" spans="1:20">
+      <c r="A91" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -2965,15 +4482,15 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="str">
-        <v>吉尔吉斯斯坦</v>
-      </c>
-      <c r="B92" s="1" t="str">
-        <v>+996</v>
-      </c>
-      <c r="C92" s="1" t="str">
-        <v>🇰🇬</v>
+    <row r="92" spans="1:20">
+      <c r="A92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -2993,15 +4510,15 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="str">
-        <v>老挝</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <v>+856</v>
-      </c>
-      <c r="C93" s="1" t="str">
-        <v>🇱🇸</v>
+    <row r="93" spans="1:20">
+      <c r="A93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3021,15 +4538,15 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="str">
-        <v>拉脱维亚</v>
-      </c>
-      <c r="B94" s="1" t="str">
-        <v>+371</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <v>🇱🇻</v>
+    <row r="94" spans="1:20">
+      <c r="A94" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3049,15 +4566,15 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="str">
-        <v>黎巴嫩</v>
-      </c>
-      <c r="B95" s="1" t="str">
-        <v>+961</v>
-      </c>
-      <c r="C95" s="1" t="str">
-        <v>🇱🇧</v>
+    <row r="95" spans="1:20">
+      <c r="A95" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3077,15 +4594,15 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="str">
-        <v>莱索托</v>
-      </c>
-      <c r="B96" s="1" t="str">
-        <v>+266</v>
-      </c>
-      <c r="C96" s="1" t="str">
-        <v>🇱🇸</v>
+    <row r="96" spans="1:20">
+      <c r="A96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3105,15 +4622,15 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="str">
-        <v>利比里亚</v>
-      </c>
-      <c r="B97" s="1" t="str">
-        <v>+231</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <v>🇱🇷</v>
+    <row r="97" spans="1:20">
+      <c r="A97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3133,15 +4650,15 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="str">
-        <v>利比亚</v>
-      </c>
-      <c r="B98" s="1" t="str">
-        <v>+218</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <v>🇱🇾</v>
+    <row r="98" spans="1:20">
+      <c r="A98" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3161,15 +4678,15 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="str">
-        <v>列支敦士登</v>
-      </c>
-      <c r="B99" s="1" t="str">
-        <v>+423</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <v>🇱🇮</v>
+    <row r="99" spans="1:20">
+      <c r="A99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3189,15 +4706,15 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="str">
-        <v>立陶宛</v>
-      </c>
-      <c r="B100" s="1" t="str">
-        <v>+370</v>
-      </c>
-      <c r="C100" s="1" t="str">
-        <v>🇱🇹</v>
+    <row r="100" spans="1:20">
+      <c r="A100" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3217,15 +4734,15 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="str">
-        <v>卢森堡</v>
-      </c>
-      <c r="B101" s="1" t="str">
-        <v>+352</v>
-      </c>
-      <c r="C101" s="1" t="str">
-        <v>🇱🇺</v>
+    <row r="101" spans="1:20">
+      <c r="A101" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3245,15 +4762,15 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="str">
-        <v>马其顿</v>
-      </c>
-      <c r="B102" s="1" t="str">
-        <v>+389</v>
-      </c>
-      <c r="C102" s="1" t="str">
-        <v>🇲🇰</v>
+    <row r="102" spans="1:20">
+      <c r="A102" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3273,15 +4790,15 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="str">
-        <v>马达加斯加</v>
-      </c>
-      <c r="B103" s="1" t="str">
-        <v>+261</v>
-      </c>
-      <c r="C103" s="1" t="str">
-        <v>🇲🇬</v>
+    <row r="103" spans="1:20">
+      <c r="A103" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3301,15 +4818,15 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="str">
-        <v>马拉维</v>
-      </c>
-      <c r="B104" s="1" t="str">
-        <v>+265</v>
-      </c>
-      <c r="C104" s="1" t="str">
-        <v>🇲🇼</v>
+    <row r="104" spans="1:20">
+      <c r="A104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3329,15 +4846,15 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="str">
-        <v>马来西亚</v>
-      </c>
-      <c r="B105" s="1" t="str">
-        <v>+60</v>
-      </c>
-      <c r="C105" s="1" t="str">
-        <v>🇲🇾</v>
+    <row r="105" spans="1:20">
+      <c r="A105" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3357,15 +4874,15 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="str">
-        <v>马尔代夫</v>
-      </c>
-      <c r="B106" s="1" t="str">
-        <v>+960</v>
-      </c>
-      <c r="C106" s="1" t="str">
-        <v>🇲🇻</v>
+    <row r="106" spans="1:20">
+      <c r="A106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3385,15 +4902,15 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="str">
-        <v>马里</v>
-      </c>
-      <c r="B107" s="1" t="str">
-        <v>+223</v>
-      </c>
-      <c r="C107" s="1" t="str">
-        <v>🇲🇱</v>
+    <row r="107" spans="1:20">
+      <c r="A107" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3413,15 +4930,15 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="str">
-        <v>马耳他</v>
-      </c>
-      <c r="B108" s="1" t="str">
-        <v>+356</v>
-      </c>
-      <c r="C108" s="1" t="str">
-        <v>🇲🇹</v>
+    <row r="108" spans="1:20">
+      <c r="A108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3441,15 +4958,15 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="str">
-        <v>马提尼克</v>
-      </c>
-      <c r="B109" s="1" t="str">
-        <v>+596</v>
-      </c>
-      <c r="C109" s="1" t="str">
-        <v>🇲🇶</v>
+    <row r="109" spans="1:20">
+      <c r="A109" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3469,15 +4986,15 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="str">
-        <v>莫桑比克</v>
-      </c>
-      <c r="B110" s="1" t="str">
-        <v>+258</v>
-      </c>
-      <c r="C110" s="1" t="str">
-        <v>🇲🇿</v>
+    <row r="110" spans="1:20">
+      <c r="A110" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3497,15 +5014,15 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="str">
-        <v>缅甸</v>
-      </c>
-      <c r="B111" s="1" t="str">
-        <v>+95</v>
-      </c>
-      <c r="C111" s="1" t="str">
-        <v>🇲🇲</v>
+    <row r="111" spans="1:20">
+      <c r="A111" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3525,15 +5042,15 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="str">
-        <v>纳米比亚</v>
-      </c>
-      <c r="B112" s="1" t="str">
-        <v>+264</v>
-      </c>
-      <c r="C112" s="1" t="str">
-        <v>🇳🇦</v>
+    <row r="112" spans="1:20">
+      <c r="A112" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3553,15 +5070,15 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="str">
-        <v>尼泊尔</v>
-      </c>
-      <c r="B113" s="1" t="str">
-        <v>+977</v>
-      </c>
-      <c r="C113" s="1" t="str">
-        <v>🇳🇵</v>
+    <row r="113" spans="1:20">
+      <c r="A113" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3581,15 +5098,15 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="str">
-        <v>荷兰</v>
-      </c>
-      <c r="B114" s="1" t="str">
-        <v>+31</v>
-      </c>
-      <c r="C114" s="1" t="str">
-        <v>🇳🇱</v>
+    <row r="114" spans="1:20">
+      <c r="A114" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3609,15 +5126,15 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="str">
-        <v>新喀里多尼亚</v>
-      </c>
-      <c r="B115" s="1" t="str">
-        <v>+687</v>
-      </c>
-      <c r="C115" s="1" t="str">
-        <v>🇳🇨</v>
+    <row r="115" spans="1:20">
+      <c r="A115" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3637,15 +5154,15 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="str">
-        <v>新西兰</v>
-      </c>
-      <c r="B116" s="1" t="str">
-        <v>+64</v>
-      </c>
-      <c r="C116" s="1" t="str">
-        <v>🇳🇿</v>
+    <row r="116" spans="1:20">
+      <c r="A116" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3665,15 +5182,15 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="str">
-        <v>尼加拉瓜</v>
-      </c>
-      <c r="B117" s="1" t="str">
-        <v>+505</v>
-      </c>
-      <c r="C117" s="1" t="str">
-        <v>🇳🇮</v>
+    <row r="117" spans="1:20">
+      <c r="A117" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3693,15 +5210,15 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="str">
-        <v>尼日尔</v>
-      </c>
-      <c r="B118" s="1" t="str">
-        <v>+227</v>
-      </c>
-      <c r="C118" s="1" t="str">
-        <v>🇳🇪</v>
+    <row r="118" spans="1:20">
+      <c r="A118" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3721,15 +5238,15 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="str">
-        <v>尼日利亚</v>
-      </c>
-      <c r="B119" s="1" t="str">
-        <v>+234</v>
-      </c>
-      <c r="C119" s="1" t="str">
-        <v>🇳🇬</v>
+    <row r="119" spans="1:20">
+      <c r="A119" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3749,15 +5266,15 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="str">
-        <v>北马其顿</v>
-      </c>
-      <c r="B120" s="1" t="str">
-        <v>+389</v>
-      </c>
-      <c r="C120" s="1" t="str">
-        <v>🇲🇰</v>
+    <row r="120" spans="1:20">
+      <c r="A120" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3777,15 +5294,15 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="str">
-        <v>挪威</v>
-      </c>
-      <c r="B121" s="1" t="str">
-        <v>+47</v>
-      </c>
-      <c r="C121" s="1" t="str">
-        <v>🇳🇴</v>
+    <row r="121" spans="1:20">
+      <c r="A121" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3805,15 +5322,15 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="str">
-        <v>阿曼</v>
-      </c>
-      <c r="B122" s="1" t="str">
-        <v>+968</v>
-      </c>
-      <c r="C122" s="1" t="str">
-        <v>🇴🇲</v>
+    <row r="122" spans="1:20">
+      <c r="A122" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3833,15 +5350,15 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="str">
-        <v>巴基斯坦</v>
-      </c>
-      <c r="B123" s="1" t="str">
-        <v>+92</v>
-      </c>
-      <c r="C123" s="1" t="str">
-        <v>🇵🇰</v>
+    <row r="123" spans="1:20">
+      <c r="A123" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3861,15 +5378,15 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="str">
-        <v>帕劳</v>
-      </c>
-      <c r="B124" s="1" t="str">
-        <v>+680</v>
-      </c>
-      <c r="C124" s="1" t="str">
-        <v>🇵🇬</v>
+    <row r="124" spans="1:20">
+      <c r="A124" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3889,10 +5406,16 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+    <row r="125" spans="1:20">
+      <c r="A125" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -3911,7 +5434,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3933,7 +5456,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3955,7 +5478,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3977,7 +5500,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3999,7 +5522,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4021,7 +5544,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4043,7 +5566,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4065,7 +5588,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4087,7 +5610,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4109,7 +5632,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4131,7 +5654,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4153,7 +5676,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4175,7 +5698,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4197,7 +5720,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4219,7 +5742,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4241,7 +5764,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4263,7 +5786,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4285,7 +5808,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4307,7 +5830,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4329,7 +5852,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4351,7 +5874,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4373,7 +5896,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4395,7 +5918,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4417,7 +5940,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4439,7 +5962,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4461,7 +5984,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4483,7 +6006,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4505,7 +6028,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4527,7 +6050,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4549,7 +6072,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4571,7 +6094,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4593,7 +6116,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4615,7 +6138,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4637,7 +6160,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4659,7 +6182,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4681,7 +6204,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4703,7 +6226,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4725,7 +6248,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4747,7 +6270,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4769,7 +6292,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4791,7 +6314,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4813,7 +6336,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4835,7 +6358,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4857,7 +6380,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4879,7 +6402,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4901,7 +6424,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4923,7 +6446,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4945,7 +6468,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4967,7 +6490,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4989,7 +6512,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5011,7 +6534,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5033,7 +6556,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5055,7 +6578,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5077,7 +6600,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5099,7 +6622,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5121,7 +6644,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5143,7 +6666,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5165,7 +6688,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5187,7 +6710,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5209,7 +6732,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5231,7 +6754,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5253,7 +6776,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5275,7 +6798,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5297,7 +6820,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5319,7 +6842,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5341,7 +6864,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5363,7 +6886,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5385,7 +6908,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5407,7 +6930,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5429,7 +6952,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5451,7 +6974,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5473,7 +6996,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5495,7 +7018,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5517,7 +7040,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5539,7 +7062,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5561,30 +7084,56 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94732FF9-1D37-6B49-8BA8-466E080B70E9}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>Country/Region</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>Area Code</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>Emoji</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -5604,15 +7153,15 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>Afghanistan</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>+93</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>🇦🇫</v>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5632,15 +7181,15 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>Albania</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>+355</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>🇦🇱</v>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5660,15 +7209,15 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>Algeria</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>+213</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>🇩🇿</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5688,15 +7237,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>American Samoa</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>+1-684</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>🇦🇸</v>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5716,15 +7265,15 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
-        <v>Angola</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>+244</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>🇦🇴</v>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5744,15 +7293,15 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>Antigua and Barbuda</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>+1-268</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>🇦🇬</v>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5772,15 +7321,15 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>Argentina</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>+54</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>🇦🇷</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -5800,15 +7349,15 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>Armenia</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>+374</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>🇦🇲</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5828,15 +7377,15 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>+61</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>🇦🇺</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -5856,15 +7405,15 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="str">
-        <v>Austria</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>+43</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>🇦🇹</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5884,15 +7433,15 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="str">
-        <v>Azerbaijan</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>+994</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>🇦🇿</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5912,15 +7461,15 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="str">
-        <v>Bahamas</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>+1-242</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>🇧🇸</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5940,15 +7489,15 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="str">
-        <v>Bahrain</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>+973</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>🇧🇭</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5968,15 +7517,15 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="str">
-        <v>Bangladesh</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>+880</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <v>🇧🇩</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5996,15 +7545,15 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="str">
-        <v>Barbados</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>+1-246</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>🇧🇧</v>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -6024,15 +7573,15 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="str">
-        <v>Belarus</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <v>+375</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <v>🇧🇾</v>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6052,15 +7601,15 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="str">
-        <v>Belgium</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <v>+32</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <v>🇧🇪</v>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6080,15 +7629,15 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="str">
-        <v>Belize</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>+501</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>🇧🇿</v>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6108,15 +7657,15 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="str">
-        <v>Benin</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <v>+229</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <v>🇧🇯</v>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6136,15 +7685,15 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="str">
-        <v>Botswana</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>+267</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <v>🇧🇼</v>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -6164,15 +7713,15 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="str">
-        <v>Brazil</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>+55</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>🇧🇷</v>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -6192,15 +7741,15 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="str">
-        <v>Brunei</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>+673</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>🇧🇳</v>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6220,15 +7769,15 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="str">
-        <v>Bulgaria</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>+359</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>🇧🇬</v>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6248,15 +7797,15 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="str">
-        <v>Burkina Faso</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>+226</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>🇧🇫</v>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6276,15 +7825,15 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="str">
-        <v>Burundi</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <v>+257</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <v>🇧🇮</v>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -6304,15 +7853,15 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="str">
-        <v>Cameroon</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <v>+237</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <v>🇨🇲</v>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -6332,15 +7881,15 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <v>+1</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <v>🇨🇦</v>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -6360,15 +7909,15 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="str">
-        <v>Cape Verde</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <v>+238</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <v>🇨🇻</v>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -6388,15 +7937,15 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="str">
-        <v>Central African Republic</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <v>+236</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <v>🇨🇫</v>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -6416,15 +7965,15 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="str">
-        <v>Chad</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <v>+235</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <v>🇹🇩</v>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6444,15 +7993,15 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="str">
-        <v>Chile</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <v>+56</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <v>🇨🇱</v>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6472,15 +8021,15 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="str">
-        <v>China</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <v>+86</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <v>🇨🇳</v>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6500,15 +8049,15 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="str">
-        <v>China Taiwan</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <v>+886</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <v>🇹🇼</v>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6528,15 +8077,15 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="str">
-        <v>China Hong Kong</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <v>+852</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <v>🇭🇰</v>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6556,15 +8105,15 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="str">
-        <v>China Macau</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>+853</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <v>🇲🇴</v>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6584,15 +8133,15 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="str">
-        <v>Colombia</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <v>+57</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <v>🇨🇴</v>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6612,15 +8161,15 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="str">
-        <v>Comoros</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <v>+269</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <v>🇰🇲</v>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6640,15 +8189,15 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="str">
-        <v>Congo</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <v>+242</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <v>🇨🇬</v>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6668,15 +8217,15 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="str">
-        <v>Congo (Democratic Republic)</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <v>+243</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <v>🇨🇩</v>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6696,15 +8245,15 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="str">
-        <v>Cook Islands</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>+682</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>🇨🇰</v>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6724,15 +8273,15 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="str">
-        <v>Costa Rica</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <v>+506</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <v>🇨🇷</v>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6752,15 +8301,15 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="str">
-        <v>Croatia</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <v>+385</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <v>🇭🇷</v>
+    <row r="43" spans="1:20">
+      <c r="A43" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6780,15 +8329,15 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="str">
-        <v>Cuba</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <v>+53</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <v>🇨🇺</v>
+    <row r="44" spans="1:20">
+      <c r="A44" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6808,15 +8357,15 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="str">
-        <v>Cyprus</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <v>+357</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <v>🇨🇾</v>
+    <row r="45" spans="1:20">
+      <c r="A45" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6836,15 +8385,15 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="str">
-        <v>Czech Republic</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <v>+420</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <v>🇨🇿</v>
+    <row r="46" spans="1:20">
+      <c r="A46" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -6864,15 +8413,15 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="str">
-        <v>Denmark</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <v>+45</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <v>🇩🇰</v>
+    <row r="47" spans="1:20">
+      <c r="A47" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -6892,15 +8441,15 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="str">
-        <v>Djibouti</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <v>+253</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <v>🇩🇯</v>
+    <row r="48" spans="1:20">
+      <c r="A48" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -6920,15 +8469,15 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="str">
-        <v>Dominica</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <v>+1-809</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <v>🇩🇴</v>
+    <row r="49" spans="1:20">
+      <c r="A49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6948,15 +8497,15 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="str">
-        <v>Dominican Republic</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <v>+1-829</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <v>🇩🇲</v>
+    <row r="50" spans="1:20">
+      <c r="A50" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -6976,15 +8525,15 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="str">
-        <v>East Timor</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <v>+670</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <v>🇹🇱</v>
+    <row r="51" spans="1:20">
+      <c r="A51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -7004,15 +8553,15 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="str">
-        <v>Ecuador</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <v>+593</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <v>🇪🇨</v>
+    <row r="52" spans="1:20">
+      <c r="A52" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -7032,15 +8581,15 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="str">
-        <v>Egypt</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <v>+20</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <v>🇪🇬</v>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -7060,15 +8609,15 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="str">
-        <v>El Salvador</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <v>+503</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <v>🇸🇻</v>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -7088,15 +8637,15 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="str">
-        <v>Equatorial Guinea</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <v>+240</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <v>🇬🇶</v>
+    <row r="55" spans="1:20">
+      <c r="A55" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -7116,15 +8665,15 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="str">
-        <v>Eritrea</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <v>+291</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <v>🇪🇷</v>
+    <row r="56" spans="1:20">
+      <c r="A56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -7144,15 +8693,15 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="str">
-        <v>Estonia</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <v>+372</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <v>🇪🇪</v>
+    <row r="57" spans="1:20">
+      <c r="A57" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -7172,15 +8721,15 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="str">
-        <v>Ethiopia</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <v>+251</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <v>🇪🇹</v>
+    <row r="58" spans="1:20">
+      <c r="A58" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -7200,15 +8749,15 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="str">
-        <v>Fiji</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <v>+679</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <v>🇫🇯</v>
+    <row r="59" spans="1:20">
+      <c r="A59" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -7228,15 +8777,15 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="str">
-        <v>Finland</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <v>+358</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <v>🇫🇮</v>
+    <row r="60" spans="1:20">
+      <c r="A60" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -7256,15 +8805,15 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="str">
-        <v>France</v>
-      </c>
-      <c r="B61" s="1" t="str">
-        <v>+33</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <v>🇫🇷</v>
+    <row r="61" spans="1:20">
+      <c r="A61" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -7284,15 +8833,15 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="str">
-        <v>Gabon</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <v>+241</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <v>🇬🇦</v>
+    <row r="62" spans="1:20">
+      <c r="A62" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -7312,15 +8861,15 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="str">
-        <v>Gambia</v>
-      </c>
-      <c r="B63" s="1" t="str">
-        <v>+220</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <v>🇬🇲</v>
+    <row r="63" spans="1:20">
+      <c r="A63" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -7340,15 +8889,15 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="str">
-        <v>Georgia</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <v>+995</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <v>🇬🇪</v>
+    <row r="64" spans="1:20">
+      <c r="A64" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -7368,15 +8917,15 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <v>+49</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <v>🇩🇪</v>
+    <row r="65" spans="1:20">
+      <c r="A65" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -7396,15 +8945,15 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="str">
-        <v>Ghana</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <v>+233</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <v>🇬🇭</v>
+    <row r="66" spans="1:20">
+      <c r="A66" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -7424,15 +8973,15 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="str">
-        <v>Greece</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <v>+30</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <v>🇬🇷</v>
+    <row r="67" spans="1:20">
+      <c r="A67" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -7452,15 +9001,15 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="str">
-        <v>Grenada</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <v>+1-473</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <v>🇬🇩</v>
+    <row r="68" spans="1:20">
+      <c r="A68" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -7480,15 +9029,15 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="str">
-        <v>Guatemala</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <v>+502</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <v>🇬🇹</v>
+    <row r="69" spans="1:20">
+      <c r="A69" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -7508,15 +9057,15 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="str">
-        <v>Guinea</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <v>+224</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <v>🇬🇳</v>
+    <row r="70" spans="1:20">
+      <c r="A70" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -7536,15 +9085,15 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="str">
-        <v>Guinea-Bissau</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <v>+245</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <v>🇬🇼</v>
+    <row r="71" spans="1:20">
+      <c r="A71" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -7564,15 +9113,15 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="str">
-        <v>Guyana</v>
-      </c>
-      <c r="B72" s="1" t="str">
-        <v>+592</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <v>🇬🇾</v>
+    <row r="72" spans="1:20">
+      <c r="A72" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -7592,15 +9141,15 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="str">
-        <v>Haiti</v>
-      </c>
-      <c r="B73" s="1" t="str">
-        <v>+509</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <v>🇭🇹</v>
+    <row r="73" spans="1:20">
+      <c r="A73" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -7620,15 +9169,15 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="str">
-        <v>Honduras</v>
-      </c>
-      <c r="B74" s="1" t="str">
-        <v>+504</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <v>🇭🇳</v>
+    <row r="74" spans="1:20">
+      <c r="A74" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -7648,15 +9197,15 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="str">
-        <v>Hungary</v>
-      </c>
-      <c r="B75" s="1" t="str">
-        <v>+36</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <v>🇭🇺</v>
+    <row r="75" spans="1:20">
+      <c r="A75" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -7676,15 +9225,15 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="str">
-        <v>Iceland</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <v>+354</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <v>🇮🇸</v>
+    <row r="76" spans="1:20">
+      <c r="A76" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -7704,15 +9253,15 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="str">
-        <v>India</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <v>+91</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <v>🇮🇳</v>
+    <row r="77" spans="1:20">
+      <c r="A77" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -7732,15 +9281,15 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="str">
-        <v>Indonesia</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <v>+62</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <v>🇮🇩</v>
+    <row r="78" spans="1:20">
+      <c r="A78" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -7760,15 +9309,15 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="str">
-        <v>Iran</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <v>+98</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <v>🇮🇷</v>
+    <row r="79" spans="1:20">
+      <c r="A79" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -7788,15 +9337,15 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="str">
-        <v>Iraq</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <v>+964</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <v>🇮🇶</v>
+    <row r="80" spans="1:20">
+      <c r="A80" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -7816,15 +9365,15 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="str">
-        <v>Ireland</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <v>+353</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <v>🇮🇪</v>
+    <row r="81" spans="1:20">
+      <c r="A81" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -7844,15 +9393,15 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="str">
-        <v>Israel</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <v>+972</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <v>🇮🇱</v>
+    <row r="82" spans="1:20">
+      <c r="A82" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -7872,15 +9421,15 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="str">
-        <v>Italy</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <v>+39</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <v>🇮🇹</v>
+    <row r="83" spans="1:20">
+      <c r="A83" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -7900,15 +9449,15 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="str">
-        <v>Jamaica</v>
-      </c>
-      <c r="B84" s="1" t="str">
-        <v>+1-876</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <v>🇯🇲</v>
+    <row r="84" spans="1:20">
+      <c r="A84" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -7928,15 +9477,15 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="str">
-        <v>Japan</v>
-      </c>
-      <c r="B85" s="1" t="str">
-        <v>+81</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <v>🇯🇵</v>
+    <row r="85" spans="1:20">
+      <c r="A85" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -7956,15 +9505,15 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="str">
-        <v>Jordan</v>
-      </c>
-      <c r="B86" s="1" t="str">
-        <v>+962</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <v>🇯🇴</v>
+    <row r="86" spans="1:20">
+      <c r="A86" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -7984,15 +9533,15 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="str">
-        <v>Kazakhstan</v>
-      </c>
-      <c r="B87" s="1" t="str">
-        <v>+7</v>
-      </c>
-      <c r="C87" s="1" t="str">
-        <v>🇰🇿</v>
+    <row r="87" spans="1:20">
+      <c r="A87" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -8012,15 +9561,15 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="str">
-        <v>Kenya</v>
-      </c>
-      <c r="B88" s="1" t="str">
-        <v>+254</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <v>🇰🇪</v>
+    <row r="88" spans="1:20">
+      <c r="A88" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -8040,15 +9589,15 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="str">
-        <v>Kiribati</v>
-      </c>
-      <c r="B89" s="1" t="str">
-        <v>+686</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <v>🇰🇮</v>
+    <row r="89" spans="1:20">
+      <c r="A89" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -8068,15 +9617,15 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="str">
-        <v>South Korea</v>
-      </c>
-      <c r="B90" s="1" t="str">
-        <v>+82</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <v>🇰🇷</v>
+    <row r="90" spans="1:20">
+      <c r="A90" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -8096,15 +9645,15 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="str">
-        <v>Kuwait</v>
-      </c>
-      <c r="B91" s="1" t="str">
-        <v>+965</v>
-      </c>
-      <c r="C91" s="1" t="str">
-        <v>🇰🇼</v>
+    <row r="91" spans="1:20">
+      <c r="A91" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -8124,15 +9673,15 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="str">
-        <v>Kyrgyzstan</v>
-      </c>
-      <c r="B92" s="1" t="str">
-        <v>+996</v>
-      </c>
-      <c r="C92" s="1" t="str">
-        <v>🇰🇬</v>
+    <row r="92" spans="1:20">
+      <c r="A92" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -8152,15 +9701,15 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="str">
-        <v>Laos</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <v>+856</v>
-      </c>
-      <c r="C93" s="1" t="str">
-        <v>🇱🇸</v>
+    <row r="93" spans="1:20">
+      <c r="A93" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -8180,15 +9729,15 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="str">
-        <v>Latvia</v>
-      </c>
-      <c r="B94" s="1" t="str">
-        <v>+371</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <v>🇱🇻</v>
+    <row r="94" spans="1:20">
+      <c r="A94" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -8208,15 +9757,15 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="str">
-        <v>Lebanon</v>
-      </c>
-      <c r="B95" s="1" t="str">
-        <v>+961</v>
-      </c>
-      <c r="C95" s="1" t="str">
-        <v>🇱🇧</v>
+    <row r="95" spans="1:20">
+      <c r="A95" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -8236,15 +9785,15 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="str">
-        <v>Lesotho</v>
-      </c>
-      <c r="B96" s="1" t="str">
-        <v>+266</v>
-      </c>
-      <c r="C96" s="1" t="str">
-        <v>🇱🇸</v>
+    <row r="96" spans="1:20">
+      <c r="A96" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -8264,15 +9813,15 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="str">
-        <v>Liberia</v>
-      </c>
-      <c r="B97" s="1" t="str">
-        <v>+231</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <v>🇱🇷</v>
+    <row r="97" spans="1:20">
+      <c r="A97" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -8292,15 +9841,15 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="str">
-        <v>Libya</v>
-      </c>
-      <c r="B98" s="1" t="str">
-        <v>+218</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <v>🇱🇾</v>
+    <row r="98" spans="1:20">
+      <c r="A98" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -8320,15 +9869,15 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="str">
-        <v>Liechtenstein</v>
-      </c>
-      <c r="B99" s="1" t="str">
-        <v>+423</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <v>🇱🇮</v>
+    <row r="99" spans="1:20">
+      <c r="A99" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -8348,15 +9897,15 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="str">
-        <v>Lithuania</v>
-      </c>
-      <c r="B100" s="1" t="str">
-        <v>+370</v>
-      </c>
-      <c r="C100" s="1" t="str">
-        <v>🇱🇹</v>
+    <row r="100" spans="1:20">
+      <c r="A100" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -8376,15 +9925,15 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="str">
-        <v>Luxembourg</v>
-      </c>
-      <c r="B101" s="1" t="str">
-        <v>+352</v>
-      </c>
-      <c r="C101" s="1" t="str">
-        <v>🇱🇺</v>
+    <row r="101" spans="1:20">
+      <c r="A101" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -8404,15 +9953,15 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="str">
-        <v>Macedonia</v>
-      </c>
-      <c r="B102" s="1" t="str">
-        <v>+389</v>
-      </c>
-      <c r="C102" s="1" t="str">
-        <v>🇲🇰</v>
+    <row r="102" spans="1:20">
+      <c r="A102" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -8432,15 +9981,15 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="str">
-        <v>Madagascar</v>
-      </c>
-      <c r="B103" s="1" t="str">
-        <v>+261</v>
-      </c>
-      <c r="C103" s="1" t="str">
-        <v>🇲🇬</v>
+    <row r="103" spans="1:20">
+      <c r="A103" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -8460,15 +10009,15 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="str">
-        <v>Malawi</v>
-      </c>
-      <c r="B104" s="1" t="str">
-        <v>+265</v>
-      </c>
-      <c r="C104" s="1" t="str">
-        <v>🇲🇼</v>
+    <row r="104" spans="1:20">
+      <c r="A104" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -8488,15 +10037,15 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="str">
-        <v>Malaysia</v>
-      </c>
-      <c r="B105" s="1" t="str">
-        <v>+60</v>
-      </c>
-      <c r="C105" s="1" t="str">
-        <v>🇲🇾</v>
+    <row r="105" spans="1:20">
+      <c r="A105" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -8516,15 +10065,15 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="str">
-        <v>Maldives</v>
-      </c>
-      <c r="B106" s="1" t="str">
-        <v>+960</v>
-      </c>
-      <c r="C106" s="1" t="str">
-        <v>🇲🇻</v>
+    <row r="106" spans="1:20">
+      <c r="A106" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -8544,15 +10093,15 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="str">
-        <v>Mali</v>
-      </c>
-      <c r="B107" s="1" t="str">
-        <v>+223</v>
-      </c>
-      <c r="C107" s="1" t="str">
-        <v>🇲🇱</v>
+    <row r="107" spans="1:20">
+      <c r="A107" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -8572,15 +10121,15 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="str">
-        <v>Malta</v>
-      </c>
-      <c r="B108" s="1" t="str">
-        <v>+356</v>
-      </c>
-      <c r="C108" s="1" t="str">
-        <v>🇲🇹</v>
+    <row r="108" spans="1:20">
+      <c r="A108" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -8600,15 +10149,15 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="str">
-        <v>Martinique</v>
-      </c>
-      <c r="B109" s="1" t="str">
-        <v>+596</v>
-      </c>
-      <c r="C109" s="1" t="str">
-        <v>🇲🇶</v>
+    <row r="109" spans="1:20">
+      <c r="A109" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -8628,15 +10177,15 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="str">
-        <v>Mozambique</v>
-      </c>
-      <c r="B110" s="1" t="str">
-        <v>+258</v>
-      </c>
-      <c r="C110" s="1" t="str">
-        <v>🇲🇿</v>
+    <row r="110" spans="1:20">
+      <c r="A110" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -8656,15 +10205,15 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="str">
-        <v>Myanmar</v>
-      </c>
-      <c r="B111" s="1" t="str">
-        <v>+95</v>
-      </c>
-      <c r="C111" s="1" t="str">
-        <v>🇲🇲</v>
+    <row r="111" spans="1:20">
+      <c r="A111" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -8684,15 +10233,15 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="str">
-        <v>Namibia</v>
-      </c>
-      <c r="B112" s="1" t="str">
-        <v>+264</v>
-      </c>
-      <c r="C112" s="1" t="str">
-        <v>🇳🇦</v>
+    <row r="112" spans="1:20">
+      <c r="A112" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -8712,15 +10261,15 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="str">
-        <v>Nepal</v>
-      </c>
-      <c r="B113" s="1" t="str">
-        <v>+977</v>
-      </c>
-      <c r="C113" s="1" t="str">
-        <v>🇳🇵</v>
+    <row r="113" spans="1:20">
+      <c r="A113" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -8740,15 +10289,15 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="str">
-        <v>Netherlands</v>
-      </c>
-      <c r="B114" s="1" t="str">
-        <v>+31</v>
-      </c>
-      <c r="C114" s="1" t="str">
-        <v>🇳🇱</v>
+    <row r="114" spans="1:20">
+      <c r="A114" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -8768,15 +10317,15 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="str">
-        <v>New Caledonia</v>
-      </c>
-      <c r="B115" s="1" t="str">
-        <v>+687</v>
-      </c>
-      <c r="C115" s="1" t="str">
-        <v>🇳🇨</v>
+    <row r="115" spans="1:20">
+      <c r="A115" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -8796,15 +10345,15 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="str">
-        <v>New Zealand</v>
-      </c>
-      <c r="B116" s="1" t="str">
-        <v>+64</v>
-      </c>
-      <c r="C116" s="1" t="str">
-        <v>🇳🇿</v>
+    <row r="116" spans="1:20">
+      <c r="A116" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -8824,15 +10373,15 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="str">
-        <v>Nicaragua</v>
-      </c>
-      <c r="B117" s="1" t="str">
-        <v>+505</v>
-      </c>
-      <c r="C117" s="1" t="str">
-        <v>🇳🇮</v>
+    <row r="117" spans="1:20">
+      <c r="A117" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -8852,15 +10401,15 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="str">
-        <v>Niger</v>
-      </c>
-      <c r="B118" s="1" t="str">
-        <v>+227</v>
-      </c>
-      <c r="C118" s="1" t="str">
-        <v>🇳🇪</v>
+    <row r="118" spans="1:20">
+      <c r="A118" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -8880,15 +10429,15 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="str">
-        <v>Nigeria</v>
-      </c>
-      <c r="B119" s="1" t="str">
-        <v>+234</v>
-      </c>
-      <c r="C119" s="1" t="str">
-        <v>🇳🇬</v>
+    <row r="119" spans="1:20">
+      <c r="A119" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -8908,15 +10457,15 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="str">
-        <v>North Macedonia</v>
-      </c>
-      <c r="B120" s="1" t="str">
-        <v>+389</v>
-      </c>
-      <c r="C120" s="1" t="str">
-        <v>🇲🇰</v>
+    <row r="120" spans="1:20">
+      <c r="A120" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -8936,15 +10485,15 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="str">
-        <v>Norway</v>
-      </c>
-      <c r="B121" s="1" t="str">
-        <v>+47</v>
-      </c>
-      <c r="C121" s="1" t="str">
-        <v>🇳🇴</v>
+    <row r="121" spans="1:20">
+      <c r="A121" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -8964,15 +10513,15 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="str">
-        <v>Oman</v>
-      </c>
-      <c r="B122" s="1" t="str">
-        <v>+968</v>
-      </c>
-      <c r="C122" s="1" t="str">
-        <v>🇴🇲</v>
+    <row r="122" spans="1:20">
+      <c r="A122" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -8992,15 +10541,15 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="str">
-        <v>Pakistan</v>
-      </c>
-      <c r="B123" s="1" t="str">
-        <v>+92</v>
-      </c>
-      <c r="C123" s="1" t="str">
-        <v>🇵🇰</v>
+    <row r="123" spans="1:20">
+      <c r="A123" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -9020,15 +10569,15 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="str">
-        <v>Palau</v>
-      </c>
-      <c r="B124" s="1" t="str">
-        <v>+680</v>
-      </c>
-      <c r="C124" s="1" t="str">
-        <v>🇵🇬</v>
+    <row r="124" spans="1:20">
+      <c r="A124" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -9048,10 +10597,16 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+    <row r="125" spans="1:20">
+      <c r="A125" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -9070,7 +10625,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9092,7 +10647,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9114,7 +10669,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9136,7 +10691,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9158,7 +10713,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9180,7 +10735,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -9202,7 +10757,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -9224,7 +10779,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -9246,7 +10801,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -9268,7 +10823,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9290,7 +10845,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -9312,7 +10867,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -9334,7 +10889,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9356,7 +10911,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9378,7 +10933,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9400,7 +10955,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9422,7 +10977,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9444,7 +10999,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9466,7 +11021,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9488,7 +11043,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9510,7 +11065,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:20">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9532,7 +11087,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:20">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9554,7 +11109,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:20">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9576,7 +11131,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:20">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9598,7 +11153,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:20">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9620,7 +11175,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:20">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9642,7 +11197,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:20">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9664,7 +11219,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:20">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9686,7 +11241,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:20">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9708,7 +11263,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:20">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9730,7 +11285,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:20">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9752,7 +11307,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:20">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9774,7 +11329,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:20">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9796,7 +11351,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:20">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9818,7 +11373,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:20">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9840,7 +11395,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:20">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9862,7 +11417,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:20">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9884,7 +11439,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:20">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9906,7 +11461,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:20">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9928,7 +11483,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:20">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9950,7 +11505,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:20">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9972,7 +11527,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:20">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9994,7 +11549,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:20">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10016,7 +11571,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:20">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10038,7 +11593,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:20">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10060,7 +11615,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:20">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10082,7 +11637,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:20">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10104,7 +11659,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:20">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10126,7 +11681,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:20">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10148,7 +11703,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:20">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10170,7 +11725,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:20">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10192,7 +11747,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:20">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -10214,7 +11769,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:20">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10236,7 +11791,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:20">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10258,7 +11813,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:20">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10280,7 +11835,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:20">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10302,7 +11857,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:20">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10324,7 +11879,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:20">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10346,7 +11901,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:20">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10368,7 +11923,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:20">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10390,7 +11945,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:20">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -10412,7 +11967,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:20">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -10434,7 +11989,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:20">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -10456,7 +12011,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:20">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10478,7 +12033,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:20">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -10500,7 +12055,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:20">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10522,7 +12077,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:20">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10544,7 +12099,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:20">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10566,7 +12121,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:20">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10588,7 +12143,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:20">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10610,7 +12165,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:20">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10632,7 +12187,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:20">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10654,7 +12209,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:20">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10676,7 +12231,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:20">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10698,7 +12253,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:20">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10720,6 +12275,31 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
+    <row r="201" spans="1:20">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>